--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Itga4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H2">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N2">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P2">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q2">
-        <v>0.003318806819111111</v>
+        <v>0.2573741702333333</v>
       </c>
       <c r="R2">
-        <v>0.02986926137199999</v>
+        <v>2.3163675321</v>
       </c>
       <c r="S2">
-        <v>8.340653808141165E-07</v>
+        <v>9.822379743645725E-05</v>
       </c>
       <c r="T2">
-        <v>8.340653808141164E-07</v>
+        <v>9.822379743645726E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H3">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I3">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J3">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.133268</v>
       </c>
       <c r="O3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P3">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q3">
-        <v>0.001523060741777778</v>
+        <v>0.01034566887777778</v>
       </c>
       <c r="R3">
-        <v>0.013707546676</v>
+        <v>0.09311101989999999</v>
       </c>
       <c r="S3">
-        <v>3.827677556520602E-07</v>
+        <v>3.948301740125025E-06</v>
       </c>
       <c r="T3">
-        <v>3.827677556520602E-07</v>
+        <v>3.948301740125025E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H4">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I4">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J4">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N4">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O4">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P4">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q4">
-        <v>2.089968457262</v>
+        <v>13.16889973718611</v>
       </c>
       <c r="R4">
-        <v>18.809716115358</v>
+        <v>118.520097634675</v>
       </c>
       <c r="S4">
-        <v>0.0005252400733775165</v>
+        <v>0.005025754290237079</v>
       </c>
       <c r="T4">
-        <v>0.0005252400733775164</v>
+        <v>0.00502575429023708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H5">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I5">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J5">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N5">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P5">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q5">
-        <v>0.05581698533344445</v>
+        <v>0.1873448105249999</v>
       </c>
       <c r="R5">
-        <v>0.502352868001</v>
+        <v>1.686103294724999</v>
       </c>
       <c r="S5">
-        <v>1.402763633603245E-05</v>
+        <v>7.149792344389576E-05</v>
       </c>
       <c r="T5">
-        <v>1.402763633603245E-05</v>
+        <v>7.149792344389576E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H6">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I6">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J6">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N6">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P6">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q6">
-        <v>2.173564089728222</v>
+        <v>18.18629909488889</v>
       </c>
       <c r="R6">
-        <v>19.562076807554</v>
+        <v>163.676691854</v>
       </c>
       <c r="S6">
-        <v>0.0005462488957729129</v>
+        <v>0.00694058520633878</v>
       </c>
       <c r="T6">
-        <v>0.0005462488957729128</v>
+        <v>0.00694058520633878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H7">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I7">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J7">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N7">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O7">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P7">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q7">
-        <v>2.819092587445334</v>
+        <v>5.431833183758332</v>
       </c>
       <c r="R7">
-        <v>25.371833287008</v>
+        <v>48.88649865382499</v>
       </c>
       <c r="S7">
-        <v>0.00070847978223921</v>
+        <v>0.002072994667127655</v>
       </c>
       <c r="T7">
-        <v>0.0007084797822392099</v>
+        <v>0.002072994667127655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>43.730186</v>
       </c>
       <c r="I8">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J8">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N8">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P8">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q8">
-        <v>1.411007899295111</v>
+        <v>16.10909269102133</v>
       </c>
       <c r="R8">
-        <v>12.699071093656</v>
+        <v>144.981834219192</v>
       </c>
       <c r="S8">
-        <v>0.0003546072142796518</v>
+        <v>0.006147844035528106</v>
       </c>
       <c r="T8">
-        <v>0.0003546072142796518</v>
+        <v>0.006147844035528107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>43.730186</v>
       </c>
       <c r="I9">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J9">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.133268</v>
       </c>
       <c r="O9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P9">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q9">
         <v>0.6475371586497778</v>
@@ -1013,10 +1013,10 @@
         <v>5.827834427848001</v>
       </c>
       <c r="S9">
-        <v>0.0001627356927527261</v>
+        <v>0.0002471248713347279</v>
       </c>
       <c r="T9">
-        <v>0.0001627356927527261</v>
+        <v>0.0002471248713347279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>43.730186</v>
       </c>
       <c r="I10">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J10">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N10">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O10">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P10">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q10">
-        <v>888.5609085448762</v>
+        <v>824.2436539485451</v>
       </c>
       <c r="R10">
-        <v>7997.048176903885</v>
+        <v>7418.192885536906</v>
       </c>
       <c r="S10">
-        <v>0.2233085361565323</v>
+        <v>0.3145628080328701</v>
       </c>
       <c r="T10">
-        <v>0.2233085361565323</v>
+        <v>0.3145628080328701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>43.730186</v>
       </c>
       <c r="I11">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J11">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N11">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P11">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q11">
-        <v>23.73088025696645</v>
+        <v>11.725943264598</v>
       </c>
       <c r="R11">
-        <v>213.577922312698</v>
+        <v>105.533489381382</v>
       </c>
       <c r="S11">
-        <v>0.005963922203788342</v>
+        <v>0.004475067078134071</v>
       </c>
       <c r="T11">
-        <v>0.005963922203788343</v>
+        <v>0.004475067078134072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>43.730186</v>
       </c>
       <c r="I12">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J12">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N12">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P12">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q12">
-        <v>924.1020244294102</v>
+        <v>1138.283525346009</v>
       </c>
       <c r="R12">
-        <v>8316.918219864692</v>
+        <v>10244.55172811408</v>
       </c>
       <c r="S12">
-        <v>0.2322405457522978</v>
+        <v>0.4344123977844395</v>
       </c>
       <c r="T12">
-        <v>0.2322405457522978</v>
+        <v>0.4344123977844395</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>43.730186</v>
       </c>
       <c r="I13">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J13">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N13">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O13">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P13">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q13">
-        <v>1198.55180687951</v>
+        <v>339.9793544161793</v>
       </c>
       <c r="R13">
-        <v>10786.96626191559</v>
+        <v>3059.814189745614</v>
       </c>
       <c r="S13">
-        <v>0.3012138469385667</v>
+        <v>0.1297490855841421</v>
       </c>
       <c r="T13">
-        <v>0.3012138469385667</v>
+        <v>0.1297490855841421</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H14">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I14">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J14">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N14">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P14">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q14">
-        <v>0.0005350384968888888</v>
+        <v>1.573471867453333</v>
       </c>
       <c r="R14">
-        <v>0.004815346472</v>
+        <v>14.16124680708</v>
       </c>
       <c r="S14">
-        <v>1.344631103829557E-07</v>
+        <v>0.0006004968635375665</v>
       </c>
       <c r="T14">
-        <v>1.344631103829558E-07</v>
+        <v>0.0006004968635375665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H15">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I15">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J15">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.133268</v>
       </c>
       <c r="O15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P15">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q15">
-        <v>0.0002455388862222222</v>
+        <v>0.06324884472444445</v>
       </c>
       <c r="R15">
-        <v>0.002209849976</v>
+        <v>0.5692396025200001</v>
       </c>
       <c r="S15">
-        <v>6.17075641348908E-08</v>
+        <v>2.413817092317978E-05</v>
       </c>
       <c r="T15">
-        <v>6.17075641348908E-08</v>
+        <v>2.413817092317978E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H16">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I16">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J16">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N16">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O16">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P16">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q16">
-        <v>0.336932410612</v>
+        <v>80.50882978268778</v>
       </c>
       <c r="R16">
-        <v>3.032391695508</v>
+        <v>724.57946804419</v>
       </c>
       <c r="S16">
-        <v>8.467611243518649E-05</v>
+        <v>0.03072523937134686</v>
       </c>
       <c r="T16">
-        <v>8.467611243518649E-05</v>
+        <v>0.03072523937134686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H17">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I17">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J17">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N17">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P17">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q17">
-        <v>0.008998485769555555</v>
+        <v>1.14534332877</v>
       </c>
       <c r="R17">
-        <v>0.080986371926</v>
+        <v>10.30808995893</v>
       </c>
       <c r="S17">
-        <v>2.261452946557746E-06</v>
+        <v>0.0004371066879722646</v>
       </c>
       <c r="T17">
-        <v>2.261452946557746E-06</v>
+        <v>0.0004371066879722646</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H18">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I18">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J18">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N18">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P18">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q18">
-        <v>0.3504092063337777</v>
+        <v>111.1829907910222</v>
       </c>
       <c r="R18">
-        <v>3.153682857004</v>
+        <v>1000.6469171192</v>
       </c>
       <c r="S18">
-        <v>8.806303109857805E-05</v>
+        <v>0.04243166886535715</v>
       </c>
       <c r="T18">
-        <v>8.806303109857805E-05</v>
+        <v>0.04243166886535715</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H19">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I19">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J19">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N19">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O19">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P19">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q19">
-        <v>0.4544775103786667</v>
+        <v>33.20782616062333</v>
       </c>
       <c r="R19">
-        <v>4.090297593408001</v>
+        <v>298.87043544561</v>
       </c>
       <c r="S19">
-        <v>0.0001142169395285744</v>
+        <v>0.01267337272869703</v>
       </c>
       <c r="T19">
-        <v>0.0001142169395285744</v>
+        <v>0.01267337272869703</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H20">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I20">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J20">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N20">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P20">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q20">
-        <v>0.3662451442982222</v>
+        <v>0.151344521552</v>
       </c>
       <c r="R20">
-        <v>3.296206298684</v>
+        <v>1.362100693968</v>
       </c>
       <c r="S20">
-        <v>9.204283720021812E-05</v>
+        <v>5.775884042506723E-05</v>
       </c>
       <c r="T20">
-        <v>9.204283720021812E-05</v>
+        <v>5.775884042506723E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H21">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I21">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J21">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.133268</v>
       </c>
       <c r="O21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P21">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q21">
-        <v>0.1680765502635556</v>
+        <v>0.006083595354666666</v>
       </c>
       <c r="R21">
-        <v>1.512688952372</v>
+        <v>0.054752358192</v>
       </c>
       <c r="S21">
-        <v>4.224013012575473E-05</v>
+        <v>2.321731964246503E-06</v>
       </c>
       <c r="T21">
-        <v>4.224013012575473E-05</v>
+        <v>2.321731964246503E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,14 +1768,14 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
         <v>3</v>
       </c>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H22">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I22">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J22">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N22">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O22">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P22">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q22">
-        <v>230.6373467720141</v>
+        <v>7.743748443302666</v>
       </c>
       <c r="R22">
-        <v>2075.736120948126</v>
+        <v>69.69373598972399</v>
       </c>
       <c r="S22">
-        <v>0.05796258623961718</v>
+        <v>0.002955309687076485</v>
       </c>
       <c r="T22">
-        <v>0.05796258623961718</v>
+        <v>0.002955309687076485</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H23">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I23">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J23">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N23">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P23">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q23">
-        <v>6.15965344232189</v>
+        <v>0.110164942692</v>
       </c>
       <c r="R23">
-        <v>55.43688098089701</v>
+        <v>0.9914844842279997</v>
       </c>
       <c r="S23">
-        <v>0.001548012274914272</v>
+        <v>4.204314289102073E-05</v>
       </c>
       <c r="T23">
-        <v>0.001548012274914272</v>
+        <v>4.204314289102073E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H24">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I24">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J24">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N24">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P24">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q24">
-        <v>239.8624979013265</v>
+        <v>10.69414515381333</v>
       </c>
       <c r="R24">
-        <v>2158.762481111938</v>
+        <v>96.24730638432</v>
       </c>
       <c r="S24">
-        <v>0.06028100355316197</v>
+        <v>0.004081293574999893</v>
       </c>
       <c r="T24">
-        <v>0.06028100355316197</v>
+        <v>0.004081293574999892</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H25">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I25">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J25">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N25">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O25">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P25">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q25">
-        <v>311.0994486131307</v>
+        <v>3.194097502483999</v>
       </c>
       <c r="R25">
-        <v>2799.895037518177</v>
+        <v>28.746877522356</v>
       </c>
       <c r="S25">
-        <v>0.07818390590991654</v>
+        <v>0.001218989402828775</v>
       </c>
       <c r="T25">
-        <v>0.07818390590991654</v>
+        <v>0.001218989402828775</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H26">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I26">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J26">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09679866666666666</v>
+        <v>1.105124</v>
       </c>
       <c r="N26">
-        <v>0.290396</v>
+        <v>3.315372</v>
       </c>
       <c r="O26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="P26">
-        <v>0.0004646051906934836</v>
+        <v>0.006910839970832482</v>
       </c>
       <c r="Q26">
-        <v>0.006601765865333333</v>
+        <v>0.01707490254933334</v>
       </c>
       <c r="R26">
-        <v>0.059415892788</v>
+        <v>0.153674122944</v>
       </c>
       <c r="S26">
-        <v>1.659121684578693E-06</v>
+        <v>6.516433905284527E-06</v>
       </c>
       <c r="T26">
-        <v>1.659121684578693E-06</v>
+        <v>6.516433905284528E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H27">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I27">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J27">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.133268</v>
       </c>
       <c r="O27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="P27">
-        <v>0.0002132157624531301</v>
+        <v>0.0002777950170396876</v>
       </c>
       <c r="Q27">
-        <v>0.003029670289333333</v>
+        <v>0.0006863598151111112</v>
       </c>
       <c r="R27">
-        <v>0.027267032604</v>
+        <v>0.006177238336</v>
       </c>
       <c r="S27">
-        <v>7.614010821789327E-07</v>
+        <v>2.619410774083446E-07</v>
       </c>
       <c r="T27">
-        <v>7.614010821789327E-07</v>
+        <v>2.619410774083446E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H28">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I28">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J28">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.95749800000001</v>
+        <v>56.54517366666666</v>
       </c>
       <c r="N28">
-        <v>182.872494</v>
+        <v>169.635521</v>
       </c>
       <c r="O28">
-        <v>0.2925781000683996</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="P28">
-        <v>0.2925781000683995</v>
+        <v>0.3536025335919447</v>
       </c>
       <c r="Q28">
-        <v>4.157362321098001</v>
+        <v>0.8736606299324444</v>
       </c>
       <c r="R28">
-        <v>37.416260889882</v>
+        <v>7.862945669392</v>
       </c>
       <c r="S28">
-        <v>0.001044806816582829</v>
+        <v>0.0003334222104140969</v>
       </c>
       <c r="T28">
-        <v>0.001044806816582828</v>
+        <v>0.0003334222104140969</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H29">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I29">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J29">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.627997666666667</v>
+        <v>0.8044289999999998</v>
       </c>
       <c r="N29">
-        <v>4.883993</v>
+        <v>2.413287</v>
       </c>
       <c r="O29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="P29">
-        <v>0.007813911001221226</v>
+        <v>0.005030458199167516</v>
       </c>
       <c r="Q29">
-        <v>0.1110310688643333</v>
+        <v>0.012428964336</v>
       </c>
       <c r="R29">
-        <v>0.999279619779</v>
+        <v>0.111860679024</v>
       </c>
       <c r="S29">
-        <v>2.790375450636561E-05</v>
+        <v>4.743366726262507E-06</v>
       </c>
       <c r="T29">
-        <v>2.790375450636561E-05</v>
+        <v>4.743366726262507E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H30">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I30">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J30">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>63.39570733333333</v>
+        <v>78.08909333333334</v>
       </c>
       <c r="N30">
-        <v>190.187122</v>
+        <v>234.26728</v>
       </c>
       <c r="O30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="P30">
-        <v>0.3042807892817216</v>
+        <v>0.4883264027331488</v>
       </c>
       <c r="Q30">
-        <v>4.323650635840666</v>
+        <v>1.206528551395556</v>
       </c>
       <c r="R30">
-        <v>38.912855722566</v>
+        <v>10.85875696256</v>
       </c>
       <c r="S30">
-        <v>0.001086597536597658</v>
+        <v>0.0004604573020134042</v>
       </c>
       <c r="T30">
-        <v>0.001086597536597658</v>
+        <v>0.0004604573020134042</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H31">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I31">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J31">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>82.22364800000001</v>
+        <v>23.323433</v>
       </c>
       <c r="N31">
-        <v>246.670944</v>
+        <v>69.970299</v>
       </c>
       <c r="O31">
-        <v>0.3946493786955111</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="P31">
-        <v>0.394649378695511</v>
+        <v>0.1458519704878668</v>
       </c>
       <c r="Q31">
-        <v>5.607735017248</v>
+        <v>0.3603625888053333</v>
       </c>
       <c r="R31">
-        <v>50.46961515523201</v>
+        <v>3.243263299248</v>
       </c>
       <c r="S31">
-        <v>0.001409306988201961</v>
+        <v>0.0001375281050713151</v>
       </c>
       <c r="T31">
-        <v>0.001409306988201961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H32">
-        <v>1.890187</v>
-      </c>
-      <c r="I32">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J32">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M32">
-        <v>0.09679866666666666</v>
-      </c>
-      <c r="N32">
-        <v>0.290396</v>
-      </c>
-      <c r="O32">
-        <v>0.0004646051906934836</v>
-      </c>
-      <c r="P32">
-        <v>0.0004646051906934836</v>
-      </c>
-      <c r="Q32">
-        <v>0.06098919378355554</v>
-      </c>
-      <c r="R32">
-        <v>0.5489027440519999</v>
-      </c>
-      <c r="S32">
-        <v>1.53274890378379E-05</v>
-      </c>
-      <c r="T32">
-        <v>1.532748903783789E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H33">
-        <v>1.890187</v>
-      </c>
-      <c r="I33">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J33">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.04442266666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.133268</v>
-      </c>
-      <c r="O33">
-        <v>0.0002132157624531301</v>
-      </c>
-      <c r="P33">
-        <v>0.0002132157624531301</v>
-      </c>
-      <c r="Q33">
-        <v>0.02798904901288889</v>
-      </c>
-      <c r="R33">
-        <v>0.251901441116</v>
-      </c>
-      <c r="S33">
-        <v>7.034063172683441E-06</v>
-      </c>
-      <c r="T33">
-        <v>7.03406317268344E-06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H34">
-        <v>1.890187</v>
-      </c>
-      <c r="I34">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J34">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>60.95749800000001</v>
-      </c>
-      <c r="N34">
-        <v>182.872494</v>
-      </c>
-      <c r="O34">
-        <v>0.2925781000683996</v>
-      </c>
-      <c r="P34">
-        <v>0.2925781000683995</v>
-      </c>
-      <c r="Q34">
-        <v>38.407023424042</v>
-      </c>
-      <c r="R34">
-        <v>345.663210816378</v>
-      </c>
-      <c r="S34">
-        <v>0.009652254669854532</v>
-      </c>
-      <c r="T34">
-        <v>0.00965225466985453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H35">
-        <v>1.890187</v>
-      </c>
-      <c r="I35">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J35">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.627997666666667</v>
-      </c>
-      <c r="N35">
-        <v>4.883993</v>
-      </c>
-      <c r="O35">
-        <v>0.007813911001221226</v>
-      </c>
-      <c r="P35">
-        <v>0.007813911001221226</v>
-      </c>
-      <c r="Q35">
-        <v>1.025740008521222</v>
-      </c>
-      <c r="R35">
-        <v>9.231660076691</v>
-      </c>
-      <c r="S35">
-        <v>0.0002577836787296554</v>
-      </c>
-      <c r="T35">
-        <v>0.0002577836787296554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H36">
-        <v>1.890187</v>
-      </c>
-      <c r="I36">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J36">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>63.39570733333333</v>
-      </c>
-      <c r="N36">
-        <v>190.187122</v>
-      </c>
-      <c r="O36">
-        <v>0.3042807892817216</v>
-      </c>
-      <c r="P36">
-        <v>0.3042807892817216</v>
-      </c>
-      <c r="Q36">
-        <v>39.9432472857571</v>
-      </c>
-      <c r="R36">
-        <v>359.489225571814</v>
-      </c>
-      <c r="S36">
-        <v>0.01003833051279266</v>
-      </c>
-      <c r="T36">
-        <v>0.01003833051279266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H37">
-        <v>1.890187</v>
-      </c>
-      <c r="I37">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J37">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>82.22364800000001</v>
-      </c>
-      <c r="N37">
-        <v>246.670944</v>
-      </c>
-      <c r="O37">
-        <v>0.3946493786955111</v>
-      </c>
-      <c r="P37">
-        <v>0.394649378695511</v>
-      </c>
-      <c r="Q37">
-        <v>51.80602351405867</v>
-      </c>
-      <c r="R37">
-        <v>466.254211626528</v>
-      </c>
-      <c r="S37">
-        <v>0.01301962213705811</v>
-      </c>
-      <c r="T37">
-        <v>0.0130196221370581</v>
+        <v>0.0001375281050713151</v>
       </c>
     </row>
   </sheetData>
